--- a/calculation_template.xlsx
+++ b/calculation_template.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">NET TO SELLER (Стоимость квартиры)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">NET TO SELLER (UNIT PRICE)</t>
   </si>
   <si>
     <t xml:space="preserve">Total (on transfer date)</t>
@@ -37,22 +37,18 @@
     <t xml:space="preserve">DLD Registration Trusty fee + 5% VAT</t>
   </si>
   <si>
-    <t xml:space="preserve">WW Agency fee 2% + 5% VAT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seller's Agency fee (optional) (1-2%)</t>
+    <t xml:space="preserve">Agency fee 2% + 5% VAT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="[$AED ]#,##0"/>
     <numFmt numFmtId="166" formatCode="0%"/>
     <numFmt numFmtId="167" formatCode="0.000000%"/>
-    <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -168,7 +164,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -219,10 +215,6 @@
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -305,10 +297,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
+      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
@@ -321,9 +313,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2" t="n">
-        <v>12345</v>
-      </c>
+      <c r="C1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3"/>
@@ -365,20 +355,12 @@
       <c r="B7" s="10"/>
       <c r="C7" s="11"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11"/>
-    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/calculation_template.xlsx
+++ b/calculation_template.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">NET TO SELLER (UNIT PRICE)</t>
+    <t xml:space="preserve">UNIT PRICE</t>
   </si>
   <si>
     <t xml:space="preserve">Total (on transfer date)</t>
@@ -297,10 +297,10 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E24" activeCellId="0" sqref="E24"/>
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>

--- a/calculation_template.xlsx
+++ b/calculation_template.xlsx
@@ -164,29 +164,37 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -197,8 +205,8 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -209,8 +217,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -297,76 +305,64 @@
   <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C:C"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.71484375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.73046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="11"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+    </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="2">
